--- a/data/trans_dic/P21D_5_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21D_5_R-Edad-trans_dic.xlsx
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.003942443888749191</v>
+        <v>0.003942443888749192</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.002068471101656527</v>
@@ -640,10 +640,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.02005383826011033</v>
+        <v>0.01943922146311891</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01145588116116819</v>
+        <v>0.01040002379386863</v>
       </c>
     </row>
     <row r="10">
@@ -691,10 +691,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.0152915892190513</v>
+        <v>0.01277628132631948</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.007319459526179449</v>
+        <v>0.007415065720631856</v>
       </c>
     </row>
     <row r="13">
@@ -712,7 +712,7 @@
         <v>0.003623670846499162</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.00395336670109361</v>
+        <v>0.003953366701093609</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.003795966451430353</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001009375911051564</v>
+        <v>0.001015714819348708</v>
       </c>
     </row>
     <row r="15">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01829737835353773</v>
+        <v>0.01453098485701524</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0119084440065147</v>
+        <v>0.01192979999114101</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01154299387973883</v>
+        <v>0.01034267393295251</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002415888370700812</v>
+        <v>0.002398597955253418</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002568201256572652</v>
+        <v>0.002581107244345292</v>
       </c>
     </row>
     <row r="18">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02285580599325225</v>
+        <v>0.02532159238417655</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02120128884472904</v>
+        <v>0.02120616326715439</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01653592527787498</v>
+        <v>0.01743553794119152</v>
       </c>
     </row>
     <row r="19">
@@ -837,10 +837,10 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.001936024837638988</v>
+        <v>0.001937105684996549</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.001031366572423053</v>
+        <v>0.00103272985588069</v>
       </c>
     </row>
     <row r="21">
@@ -852,10 +852,10 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.02132846284645708</v>
+        <v>0.02016361764014687</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01240727084566528</v>
+        <v>0.01208862002513685</v>
       </c>
     </row>
     <row r="22">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.001855400667279291</v>
+        <v>0.001855400667279292</v>
       </c>
     </row>
     <row r="23">
@@ -902,11 +902,11 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03288098757191676</v>
+        <v>0.02434567386646371</v>
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.009351514938091599</v>
+        <v>0.009318833301880802</v>
       </c>
     </row>
     <row r="25">
@@ -924,7 +924,7 @@
         <v>0.002159880433428598</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.003941980535749518</v>
+        <v>0.003941980535749517</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.003085697296927659</v>
@@ -938,13 +938,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0006466689991591903</v>
+        <v>0.000520521535396228</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.001937927992953743</v>
+        <v>0.001971867472932176</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.00173015162276338</v>
+        <v>0.001871902665510425</v>
       </c>
     </row>
     <row r="27">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.005570585622283544</v>
+        <v>0.005322143294216469</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.006893787165249727</v>
+        <v>0.00730965282363579</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.005313505593969582</v>
+        <v>0.005303244363669046</v>
       </c>
     </row>
     <row r="28">
@@ -1182,10 +1182,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>5021</v>
+        <v>4867</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5466</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="12">
@@ -1250,10 +1250,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>4536</v>
+        <v>3790</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4020</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="16">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="19">
@@ -1319,13 +1319,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5780</v>
+        <v>4591</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4118</v>
+        <v>4125</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7638</v>
+        <v>6844</v>
       </c>
     </row>
     <row r="20">
@@ -1377,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1312</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="23">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5885</v>
+        <v>6520</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5374</v>
+        <v>5375</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>8449</v>
+        <v>8908</v>
       </c>
     </row>
     <row r="24">
@@ -1462,10 +1462,10 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>4244</v>
+        <v>4012</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4628</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="28">
@@ -1529,11 +1529,11 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4260</v>
+        <v>3154</v>
       </c>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>2952</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="32">
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1013</v>
+        <v>816</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3284</v>
+        <v>3341</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>5643</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="35">
@@ -1599,13 +1599,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>8730</v>
+        <v>8340</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>11681</v>
+        <v>12385</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>17330</v>
+        <v>17296</v>
       </c>
     </row>
     <row r="36">
